--- a/TestData/bill.xlsx
+++ b/TestData/bill.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F97454B-755E-4CB0-B1F8-67A3CE459E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74DB7BF-94D5-4B11-9C00-C377EE6BCF06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>biMonthly</t>
   </si>
@@ -66,38 +74,36 @@
     <t>${NEW_CUSTOMER_TYPE}</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>e1</t>
+    <t>edit11</t>
+  </si>
+  <si>
+    <t>ttyh5tg</t>
+  </si>
+  <si>
+    <t>vrtce</t>
+  </si>
+  <si>
+    <t>tvcd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF9876AA"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,8 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,13 +411,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="2" width="17.6328125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -420,7 +429,7 @@
     <col min="9" max="9" width="36.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -449,9 +458,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -469,7 +478,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -478,18 +487,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -498,42 +507,13 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/bill.xlsx
+++ b/TestData/bill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74DB7BF-94D5-4B11-9C00-C377EE6BCF06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24358594-2595-4A56-902D-92981F9BC4D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>biMonthly</t>
   </si>
@@ -65,45 +65,41 @@
     <t>${EXPECTED_TEXT_TO_VERIFY_NEW_BILL}</t>
   </si>
   <si>
+    <t>${NEW_CYCLE_NAME}</t>
+  </si>
+  <si>
+    <t>${NEW_CUSTOMER_TYPE}</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>${NEW_CYCLE_NAME}</t>
-  </si>
-  <si>
-    <t>${NEW_CUSTOMER_TYPE}</t>
-  </si>
-  <si>
-    <t>edit11</t>
-  </si>
-  <si>
-    <t>ttyh5tg</t>
-  </si>
-  <si>
-    <t>vrtce</t>
-  </si>
-  <si>
-    <t>tvcd</t>
+    <t>${RANDOM_CYCLE_NAME}</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>${RANDOM_EDIT_NAME}</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF9876AA"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,11 +122,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,25 +404,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="16.90625" customWidth="1"/>
     <col min="5" max="5" width="17.54296875" customWidth="1"/>
     <col min="6" max="6" width="35.90625" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" customWidth="1"/>
     <col min="8" max="8" width="19.08984375" customWidth="1"/>
     <col min="9" max="9" width="36.1796875" customWidth="1"/>
+    <col min="10" max="10" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -449,71 +444,149 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
       <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
-        <v>10</v>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/bill.xlsx
+++ b/TestData/bill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24358594-2595-4A56-902D-92981F9BC4D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B31543-7DF3-4163-A088-F288A7665ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
